--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/3_fold/143.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/3_fold/143.xlsx
@@ -479,13 +479,13 @@
         <v>-0.1088822969288993</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.604811543230533</v>
+        <v>-1.607156831721271</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.04294306253672579</v>
+        <v>-0.04082600681857636</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.147078593582858</v>
+        <v>-0.1526663614634754</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.112412205207701</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.586788237282079</v>
+        <v>-1.5909759151543</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.07328385511891784</v>
+        <v>-0.07003035759518933</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.1210395952591807</v>
+        <v>-0.1275229800198182</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.1254445166588969</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.635423067101589</v>
+        <v>-1.639533618036865</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.121140332482944</v>
+        <v>-0.1176743423778398</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.1164544775588318</v>
+        <v>-0.1221886292177302</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.1456995787739036</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.72942899809259</v>
+        <v>-1.733404970392996</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.1480277271130023</v>
+        <v>-0.1453046740331521</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.127312061457564</v>
+        <v>-0.133834796696234</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.1663069484344529</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.760053114116616</v>
+        <v>-1.761232841448031</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.1092124155817273</v>
+        <v>-0.1079768105715063</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.1174130552037039</v>
+        <v>-0.1233250710233093</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.1777780111973545</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.620402989636577</v>
+        <v>-1.618576340446307</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.04471226002906776</v>
+        <v>-0.04332397516408056</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.1182598774909637</v>
+        <v>-0.1234871949928033</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.1727207977108991</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.332059213815065</v>
+        <v>-1.333127972798428</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.008989896071148652</v>
+        <v>-0.003705913880942244</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.1133158834309582</v>
+        <v>-0.1203769332091131</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.145499927645472</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.911244414725765</v>
+        <v>-0.9160325808927617</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.008177702204557498</v>
+        <v>0.003289027094118013</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.07314691545536468</v>
+        <v>-0.08036694116477094</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.09072123639827623</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.3851206533354036</v>
+        <v>-0.396272578809819</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.05440034772067349</v>
+        <v>-0.03983752281039953</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.0258130124396104</v>
+        <v>-0.0326662916937536</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.005203598185128663</v>
       </c>
       <c r="E11" t="n">
-        <v>0.1787402164881418</v>
+        <v>0.1628662336498243</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.1130782065436418</v>
+        <v>-0.0921626404597983</v>
       </c>
       <c r="G11" t="n">
-        <v>0.05648300329847476</v>
+        <v>0.04946287801747369</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.1091405676139055</v>
       </c>
       <c r="E12" t="n">
-        <v>0.857602071352158</v>
+        <v>0.8345285250530112</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.241596867797843</v>
+        <v>-0.2154618543077664</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1363266972455734</v>
+        <v>0.1280457826484105</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.2440769187518178</v>
       </c>
       <c r="E13" t="n">
-        <v>1.550349922904289</v>
+        <v>1.522470896227811</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.4457990904615451</v>
+        <v>-0.4151623822845485</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2550675517182547</v>
+        <v>0.2463647999965832</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.3883385278142248</v>
       </c>
       <c r="E14" t="n">
-        <v>2.273548748377103</v>
+        <v>2.240209449368833</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.6763503932158208</v>
+        <v>-0.6432818254964147</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3757885222455323</v>
+        <v>0.3653858298728561</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.523665797248284</v>
       </c>
       <c r="E15" t="n">
-        <v>3.005544766718867</v>
+        <v>2.967239437382893</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.9237909211416528</v>
+        <v>-0.886740085045356</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4879452547338128</v>
+        <v>0.4769664713627405</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.6439451612960764</v>
       </c>
       <c r="E16" t="n">
-        <v>3.626211986630154</v>
+        <v>3.587340010410512</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.207089965679397</v>
+        <v>-1.161827471827274</v>
       </c>
       <c r="G16" t="n">
-        <v>0.633142222597316</v>
+        <v>0.6179072915222467</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.7583127511395878</v>
       </c>
       <c r="E17" t="n">
-        <v>4.220144491766149</v>
+        <v>4.177660141663122</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.461073691092475</v>
+        <v>-1.409314433317184</v>
       </c>
       <c r="G17" t="n">
-        <v>0.78267246510176</v>
+        <v>0.7663687750433276</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.8807012170829759</v>
       </c>
       <c r="E18" t="n">
-        <v>4.748802423941804</v>
+        <v>4.707301835789591</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.702092221003401</v>
+        <v>-1.647716156438947</v>
       </c>
       <c r="G18" t="n">
-        <v>0.919125756746438</v>
+        <v>0.9005350169047556</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.013150588048705</v>
       </c>
       <c r="E19" t="n">
-        <v>5.178802411613454</v>
+        <v>5.136214176248421</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.990729551391035</v>
+        <v>-1.931359124154695</v>
       </c>
       <c r="G19" t="n">
-        <v>1.064456516235252</v>
+        <v>1.043937602969976</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.144329820090175</v>
       </c>
       <c r="E20" t="n">
-        <v>5.516300443564504</v>
+        <v>5.473529621981402</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.244301670803894</v>
+        <v>-2.182286891443769</v>
       </c>
       <c r="G20" t="n">
-        <v>1.215190883367491</v>
+        <v>1.19473807890531</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.260842398618094</v>
       </c>
       <c r="E21" t="n">
-        <v>5.801070408971104</v>
+        <v>5.758167369781811</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.466376093580405</v>
+        <v>-2.401910566448414</v>
       </c>
       <c r="G21" t="n">
-        <v>1.352309985100479</v>
+        <v>1.332330960393809</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.355174680413192</v>
       </c>
       <c r="E22" t="n">
-        <v>6.007139418312669</v>
+        <v>5.966570649480265</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.672028774864386</v>
+        <v>-2.606631428412585</v>
       </c>
       <c r="G22" t="n">
-        <v>1.467805212145038</v>
+        <v>1.446620488791452</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.424603120524097</v>
       </c>
       <c r="E23" t="n">
-        <v>6.146742322219069</v>
+        <v>6.102951536245363</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.792435728576964</v>
+        <v>-2.729171178034525</v>
       </c>
       <c r="G23" t="n">
-        <v>1.566867679563218</v>
+        <v>1.546129977640082</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.464544834011536</v>
       </c>
       <c r="E24" t="n">
-        <v>6.251096641923063</v>
+        <v>6.205461105539191</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.86574173410374</v>
+        <v>-2.806207608878784</v>
       </c>
       <c r="G24" t="n">
-        <v>1.614602957454904</v>
+        <v>1.59419422552812</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.472623308772618</v>
       </c>
       <c r="E25" t="n">
-        <v>6.26901527559995</v>
+        <v>6.222836702619229</v>
       </c>
       <c r="F25" t="n">
-        <v>-2.943849284960044</v>
+        <v>-2.884119194354486</v>
       </c>
       <c r="G25" t="n">
-        <v>1.665202950147358</v>
+        <v>1.64725913216453</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.447763354808761</v>
       </c>
       <c r="E26" t="n">
-        <v>6.257734280557587</v>
+        <v>6.212665391057385</v>
       </c>
       <c r="F26" t="n">
-        <v>-3.004904699665737</v>
+        <v>-2.947302682912178</v>
       </c>
       <c r="G26" t="n">
-        <v>1.683751191472765</v>
+        <v>1.665777467126632</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.394114251549158</v>
       </c>
       <c r="E27" t="n">
-        <v>6.161794667076068</v>
+        <v>6.117005952979457</v>
       </c>
       <c r="F27" t="n">
-        <v>-3.018845000013537</v>
+        <v>-2.964264312963314</v>
       </c>
       <c r="G27" t="n">
-        <v>1.690253464462858</v>
+        <v>1.672621302266048</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.316675235918507</v>
       </c>
       <c r="E28" t="n">
-        <v>5.997328557129602</v>
+        <v>5.955678437160864</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.028700720741561</v>
+        <v>-2.975568131282935</v>
       </c>
       <c r="G28" t="n">
-        <v>1.675948778688477</v>
+        <v>1.659948874320456</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.223057241374688</v>
       </c>
       <c r="E29" t="n">
-        <v>5.826714328495335</v>
+        <v>5.786806647693878</v>
       </c>
       <c r="F29" t="n">
-        <v>-2.985744951911705</v>
+        <v>-2.935396015269099</v>
       </c>
       <c r="G29" t="n">
-        <v>1.638984513643852</v>
+        <v>1.623313579272182</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.120714930891483</v>
       </c>
       <c r="E30" t="n">
-        <v>5.633580608292619</v>
+        <v>5.59668402607021</v>
       </c>
       <c r="F30" t="n">
-        <v>-2.956952994144872</v>
+        <v>-2.909472707350837</v>
       </c>
       <c r="G30" t="n">
-        <v>1.569179913652409</v>
+        <v>1.555081424382919</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.017440858279439</v>
       </c>
       <c r="E31" t="n">
-        <v>5.394046378413081</v>
+        <v>5.359008712772927</v>
       </c>
       <c r="F31" t="n">
-        <v>-2.856004851819374</v>
+        <v>-2.813421338511705</v>
       </c>
       <c r="G31" t="n">
-        <v>1.494711495004552</v>
+        <v>1.48058624741</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>0.920467770043931</v>
       </c>
       <c r="E32" t="n">
-        <v>5.162397984331258</v>
+        <v>5.127561793138631</v>
       </c>
       <c r="F32" t="n">
-        <v>-2.794387512287377</v>
+        <v>-2.751785897759813</v>
       </c>
       <c r="G32" t="n">
-        <v>1.421252022613449</v>
+        <v>1.407841379699967</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>0.8340654404609056</v>
       </c>
       <c r="E33" t="n">
-        <v>4.867859656257867</v>
+        <v>4.834019819169024</v>
       </c>
       <c r="F33" t="n">
-        <v>-2.670343000385473</v>
+        <v>-2.630868174842373</v>
       </c>
       <c r="G33" t="n">
-        <v>1.347597371851305</v>
+        <v>1.335003644861778</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>0.7605660312264076</v>
       </c>
       <c r="E34" t="n">
-        <v>4.60759716856992</v>
+        <v>4.578147270810383</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.593758313029027</v>
+        <v>-2.555519879505709</v>
       </c>
       <c r="G34" t="n">
-        <v>1.246801909380573</v>
+        <v>1.234858252288143</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.6977415473357335</v>
       </c>
       <c r="E35" t="n">
-        <v>4.293485912723154</v>
+        <v>4.268436972426775</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.520346848221124</v>
+        <v>-2.484164083670224</v>
       </c>
       <c r="G35" t="n">
-        <v>1.155168812214932</v>
+        <v>1.143739859375168</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.6437371790975108</v>
       </c>
       <c r="E36" t="n">
-        <v>3.953914897589351</v>
+        <v>3.931562252047759</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.424345060984313</v>
+        <v>-2.389338875726585</v>
       </c>
       <c r="G36" t="n">
-        <v>1.075425855491596</v>
+        <v>1.066900967930632</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.5933995325281546</v>
       </c>
       <c r="E37" t="n">
-        <v>3.670383685231215</v>
+        <v>3.65016855765635</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.355833517701019</v>
+        <v>-2.321256252653846</v>
       </c>
       <c r="G37" t="n">
-        <v>0.9887524925771739</v>
+        <v>0.9796042934441743</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.5452658360731155</v>
       </c>
       <c r="E38" t="n">
-        <v>3.370295365736117</v>
+        <v>3.356061510822195</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.287738302475308</v>
+        <v>-2.254101513853112</v>
       </c>
       <c r="G38" t="n">
-        <v>0.8993639466785078</v>
+        <v>0.8917456941314126</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.4970727454087427</v>
       </c>
       <c r="E39" t="n">
-        <v>3.052389149787896</v>
+        <v>3.04078862886391</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.210299709745557</v>
+        <v>-2.17840378627152</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8111590631590599</v>
+        <v>0.8047087327999697</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.4491340519272637</v>
       </c>
       <c r="E40" t="n">
-        <v>2.772375870165868</v>
+        <v>2.759309937439951</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.136413678172581</v>
+        <v>-2.103616628751599</v>
       </c>
       <c r="G40" t="n">
-        <v>0.7443561176319374</v>
+        <v>0.7384566939653024</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.4010112623651153</v>
       </c>
       <c r="E41" t="n">
-        <v>2.475643359437383</v>
+        <v>2.463904324830723</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.076429383478934</v>
+        <v>-2.0463774234055</v>
       </c>
       <c r="G41" t="n">
-        <v>0.686196111099877</v>
+        <v>0.6815511806729186</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.3525958851259</v>
       </c>
       <c r="E42" t="n">
-        <v>2.199514759006725</v>
+        <v>2.191103200822494</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.990657933521016</v>
+        <v>-1.963129913108589</v>
       </c>
       <c r="G42" t="n">
-        <v>0.6145152803158437</v>
+        <v>0.6113940003983044</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.3036838295063125</v>
       </c>
       <c r="E43" t="n">
-        <v>1.946651735208012</v>
+        <v>1.939631609927011</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.927771934577251</v>
+        <v>-1.899346723265682</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5440905167906083</v>
+        <v>0.5401224145858093</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.2547565283691726</v>
       </c>
       <c r="E44" t="n">
-        <v>1.74466415744798</v>
+        <v>1.73642259332885</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.87634007277919</v>
+        <v>-1.848632614186934</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4776086711642312</v>
+        <v>0.4730267015021249</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.2071361595808524</v>
       </c>
       <c r="E45" t="n">
-        <v>1.532299071621213</v>
+        <v>1.527556552008734</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.791229710852219</v>
+        <v>-1.76376071615684</v>
       </c>
       <c r="G45" t="n">
-        <v>0.4266545241694853</v>
+        <v>0.4227761410546004</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.1615694608967987</v>
       </c>
       <c r="E46" t="n">
-        <v>1.336127494514387</v>
+        <v>1.330182424293234</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.731882106893137</v>
+        <v>-1.70517729848115</v>
       </c>
       <c r="G46" t="n">
-        <v>0.375111694023373</v>
+        <v>0.372635761945567</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.1192848690745451</v>
       </c>
       <c r="E47" t="n">
-        <v>1.181780753498763</v>
+        <v>1.177194061779292</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.700614217048499</v>
+        <v>-1.674629522384507</v>
       </c>
       <c r="G47" t="n">
-        <v>0.3270631863265482</v>
+        <v>0.322895183693344</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.08029290719302655</v>
       </c>
       <c r="E48" t="n">
-        <v>1.005249786987527</v>
+        <v>1.002171005586262</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.638005245470082</v>
+        <v>-1.611556215165306</v>
       </c>
       <c r="G48" t="n">
-        <v>0.2561284406060114</v>
+        <v>0.2533392787230666</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.04485073929087543</v>
       </c>
       <c r="E49" t="n">
-        <v>0.858905359184595</v>
+        <v>0.8556046410872274</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.587723204640132</v>
+        <v>-1.561340283138451</v>
       </c>
       <c r="G49" t="n">
-        <v>0.2216102012758873</v>
+        <v>0.2186620634616911</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.01277950790574262</v>
       </c>
       <c r="E50" t="n">
-        <v>0.7593895742594803</v>
+        <v>0.7558905297528289</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.536670681450305</v>
+        <v>-1.508922298360895</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1797066642286204</v>
+        <v>0.1762627103912145</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-0.01590088051477878</v>
       </c>
       <c r="E51" t="n">
-        <v>0.64394156778856</v>
+        <v>0.6413349921236862</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.49927120011864</v>
+        <v>-1.471292223227959</v>
       </c>
       <c r="G51" t="n">
-        <v>0.1456197061377327</v>
+        <v>0.1419349273747678</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-0.04182015050169723</v>
       </c>
       <c r="E52" t="n">
-        <v>0.5364596720905426</v>
+        <v>0.5313378138698301</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.45556147612968</v>
+        <v>-1.428444274707912</v>
       </c>
       <c r="G52" t="n">
-        <v>0.1063022825067628</v>
+        <v>0.1044417919053854</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.06591326392487951</v>
       </c>
       <c r="E53" t="n">
-        <v>0.4677993840002853</v>
+        <v>0.4603306632697135</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.416118130969007</v>
+        <v>-1.389772985926236</v>
       </c>
       <c r="G53" t="n">
-        <v>0.07434339826787366</v>
+        <v>0.07142674083610348</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.08921027299407731</v>
       </c>
       <c r="E54" t="n">
-        <v>0.3760136069798783</v>
+        <v>0.3664199604355506</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.364054300493744</v>
+        <v>-1.335396134352222</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04364372932602505</v>
+        <v>0.04120085164976638</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.1128675465607843</v>
       </c>
       <c r="E55" t="n">
-        <v>0.2856885197040383</v>
+        <v>0.2741918840420581</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.33252591048453</v>
+        <v>-1.303617475302722</v>
       </c>
       <c r="G55" t="n">
-        <v>0.009149100282720474</v>
+        <v>0.008354220626463627</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.1374282300495581</v>
       </c>
       <c r="E56" t="n">
-        <v>0.2216589958686476</v>
+        <v>0.2082168725727398</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.312583088217651</v>
+        <v>-1.283052128473368</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.008152517898616686</v>
+        <v>-0.01055289705860024</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.1631159064207385</v>
       </c>
       <c r="E57" t="n">
-        <v>0.1457755340307415</v>
+        <v>0.131607787919914</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.319574094144907</v>
+        <v>-1.290406732817645</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.04404644994075757</v>
+        <v>-0.04650506780822924</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.1901706545062284</v>
       </c>
       <c r="E58" t="n">
-        <v>0.08246848497202781</v>
+        <v>0.06759085623749371</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.299914595319862</v>
+        <v>-1.271847473358389</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.07426761706973077</v>
+        <v>-0.07706622306740341</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.2184724046916077</v>
       </c>
       <c r="E59" t="n">
-        <v>0.0451327514147755</v>
+        <v>0.02858666241166267</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.310322009749902</v>
+        <v>-1.281069651390089</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.09919220985552717</v>
+        <v>-0.1012935253824636</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.2481713791624083</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.008838790235503787</v>
+        <v>-0.02842903221921215</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.314511261641244</v>
+        <v>-1.286944677760344</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.1039677838695535</v>
+        <v>-0.1071158221121548</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.278646074760097</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.04756280865774331</v>
+        <v>-0.06846420856949514</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.294560569278758</v>
+        <v>-1.268002931654612</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.1351191962992154</v>
+        <v>-0.1376942915816633</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.3097059519680184</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.1014540753328363</v>
+        <v>-0.1231393367669958</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.319166423192491</v>
+        <v>-1.291856404428363</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.1428287419553461</v>
+        <v>-0.1459122454139742</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.3406982846800526</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.1450890334135339</v>
+        <v>-0.1673488118269683</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.358945034426002</v>
+        <v>-1.330112939171576</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.1616760469138006</v>
+        <v>-0.1638985619130771</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.3713659778249037</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.1999798022306528</v>
+        <v>-0.2264091572964126</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.400229194949037</v>
+        <v>-1.37051171393888</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.1774540145857187</v>
+        <v>-0.181067962488225</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.4010877841739762</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.2532383132189829</v>
+        <v>-0.2824395159573532</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.433145082813677</v>
+        <v>-1.403051411233529</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.2028618312417544</v>
+        <v>-0.2060492199623883</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.4290570888447476</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.3200428327652267</v>
+        <v>-0.3476794604970241</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.475387820981584</v>
+        <v>-1.446817012901294</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.2089123607440342</v>
+        <v>-0.2124019611359578</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.454819763483877</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.3075718792671613</v>
+        <v>-0.3384887628477494</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.521785969629725</v>
+        <v>-1.493681858218901</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.2419950946355321</v>
+        <v>-0.2456027464615533</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.4774051505175756</v>
       </c>
       <c r="E68" t="n">
-        <v>-0.3345474189680125</v>
+        <v>-0.3620959016290172</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.552265275894591</v>
+        <v>-1.522232204050614</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.2522876056697173</v>
+        <v>-0.255720541373274</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.4962289477525908</v>
       </c>
       <c r="E69" t="n">
-        <v>-0.3625397750212239</v>
+        <v>-0.3904219497359444</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.611567233299156</v>
+        <v>-1.579750010781183</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.2581823072789883</v>
+        <v>-0.2606283329934896</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.5098748218397109</v>
       </c>
       <c r="E70" t="n">
-        <v>-0.3889801482208329</v>
+        <v>-0.4162563255738525</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.629706229653025</v>
+        <v>-1.598468246171691</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.2685236129059339</v>
+        <v>-0.2710640797677132</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.5182172862287989</v>
       </c>
       <c r="E71" t="n">
-        <v>-0.3954950133638964</v>
+        <v>-0.4213042048958638</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.667801427436304</v>
+        <v>-1.63426222799963</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.287081298346069</v>
+        <v>-0.2890692844962717</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.5204093551665613</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.3935998943418504</v>
+        <v>-0.4183387528713333</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.700380475208986</v>
+        <v>-1.666181761760486</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.2846746231096002</v>
+        <v>-0.2860109653435845</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.51688380565522</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.3541833075062386</v>
+        <v>-0.3774236998322432</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.725357797635346</v>
+        <v>-1.692377374986733</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.2868577876308443</v>
+        <v>-0.2869286184913028</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.5075840918353386</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.3126622571054478</v>
+        <v>-0.3363339306706888</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.757696807492029</v>
+        <v>-1.72490290610929</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.2915719748991398</v>
+        <v>-0.2919450174308881</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.4928025815631452</v>
       </c>
       <c r="E75" t="n">
-        <v>-0.2491458635036011</v>
+        <v>-0.2702141094422108</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.777138304668775</v>
+        <v>-1.744123253599493</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.2951654605530693</v>
+        <v>-0.2942966019981113</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.4723862568539545</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.1414861036448767</v>
+        <v>-0.1619357600688152</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.785306676898765</v>
+        <v>-1.752280607695634</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.2781267035649894</v>
+        <v>-0.2762048262178812</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.4462681170392118</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.05477181623330046</v>
+        <v>-0.07372930253024594</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.771598544371357</v>
+        <v>-1.738744043252448</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.2646672660587472</v>
+        <v>-0.261687647862125</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.4146917228764758</v>
       </c>
       <c r="E78" t="n">
-        <v>0.08047420274533984</v>
+        <v>0.06350627661771843</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.775506046839986</v>
+        <v>-1.742941165239396</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.2367992575161185</v>
+        <v>-0.2324124662250535</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.3776128398498469</v>
       </c>
       <c r="E79" t="n">
-        <v>0.2080815069283079</v>
+        <v>0.1913701459174585</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.804334207046608</v>
+        <v>-1.771736271044471</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.220254742532127</v>
+        <v>-0.2162992324802983</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.3361229053276741</v>
       </c>
       <c r="E80" t="n">
-        <v>0.3545502822418221</v>
+        <v>0.3374044919534937</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.761562598453944</v>
+        <v>-1.731913587275564</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.1939906594741037</v>
+        <v>-0.1893362849324176</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.2907594199851942</v>
       </c>
       <c r="E81" t="n">
-        <v>0.4845862979289571</v>
+        <v>0.4695056207277752</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.740088255582039</v>
+        <v>-1.713976852378782</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.1654426746710731</v>
+        <v>-0.1611660647184991</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.2430114674690685</v>
       </c>
       <c r="E82" t="n">
-        <v>0.6629761810224493</v>
+        <v>0.644747465578666</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.700847958888013</v>
+        <v>-1.677258134317079</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.139524875819736</v>
+        <v>-0.1357582480624634</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.1937343930263413</v>
       </c>
       <c r="E83" t="n">
-        <v>0.8363827195779034</v>
+        <v>0.820492996548373</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.631843747619751</v>
+        <v>-1.61159713966246</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.1205689635419118</v>
+        <v>-0.1145042678675403</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.1443541427505876</v>
       </c>
       <c r="E84" t="n">
-        <v>1.017901752684541</v>
+        <v>1.000277460583338</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.552586375795337</v>
+        <v>-1.535908069186035</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.1046493341490767</v>
+        <v>-0.09758828437092176</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.09591046967513515</v>
       </c>
       <c r="E85" t="n">
-        <v>1.164888380288964</v>
+        <v>1.144581959605063</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.447585134232489</v>
+        <v>-1.432529641337248</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.08450346341554915</v>
+        <v>-0.07562599557141327</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.04934491910343961</v>
       </c>
       <c r="E86" t="n">
-        <v>1.326648751365914</v>
+        <v>1.308075325734566</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.330888143588817</v>
+        <v>-1.318761900278316</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.05438460752946049</v>
+        <v>-0.04572120628582151</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.005387514781441646</v>
       </c>
       <c r="E87" t="n">
-        <v>1.467038664832965</v>
+        <v>1.446079026213725</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.200913514647413</v>
+        <v>-1.190348698305242</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.03040442621644451</v>
+        <v>-0.02110197320955744</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.03448555367500806</v>
       </c>
       <c r="E88" t="n">
-        <v>1.557895770571804</v>
+        <v>1.540773590570296</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.055323042003584</v>
+        <v>-1.047813396775858</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.01634371340586547</v>
+        <v>-0.007614203359131852</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.06759781696924579</v>
       </c>
       <c r="E89" t="n">
-        <v>1.662895438115531</v>
+        <v>1.644668296690869</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.9100221888780751</v>
+        <v>-0.9068497533390935</v>
       </c>
       <c r="G89" t="n">
-        <v>0.007828498239949196</v>
+        <v>0.01741112665042778</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.09021730790759803</v>
       </c>
       <c r="E90" t="n">
-        <v>1.7068829764794</v>
+        <v>1.689272850550288</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.7192833387684183</v>
+        <v>-0.7211202190829762</v>
       </c>
       <c r="G90" t="n">
-        <v>0.00932539042430615</v>
+        <v>0.02001298025793782</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.09800422870886448</v>
       </c>
       <c r="E91" t="n">
-        <v>1.72486614494026</v>
+        <v>1.711509018676902</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.5344084968951673</v>
+        <v>-0.5371346980132601</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.009021376453574667</v>
+        <v>0.0003456113372857265</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.08779394492750331</v>
       </c>
       <c r="E92" t="n">
-        <v>1.697531728879752</v>
+        <v>1.685987872644133</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.3705420882339167</v>
+        <v>-0.375443583777647</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.01231422445533571</v>
+        <v>-0.00198078892399669</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.05846568809134638</v>
       </c>
       <c r="E93" t="n">
-        <v>1.654391012803143</v>
+        <v>1.644786348124966</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.2181077804506728</v>
+        <v>-0.2240276663658847</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.02779312849420667</v>
+        <v>-0.01930916543039596</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.01328930914951622</v>
       </c>
       <c r="E94" t="n">
-        <v>1.556252494609166</v>
+        <v>1.548659426368012</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.07983492270177131</v>
+        <v>-0.08751928405196127</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.03392235895255154</v>
+        <v>-0.02515192440866412</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.04083530076591372</v>
       </c>
       <c r="E95" t="n">
-        <v>1.486238550074591</v>
+        <v>1.478924083217906</v>
       </c>
       <c r="F95" t="n">
-        <v>0.0268395011870189</v>
+        <v>0.01990122490032547</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.06955028176319261</v>
+        <v>-0.06164083567865666</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.0951472573890373</v>
       </c>
       <c r="E96" t="n">
-        <v>1.402187503016255</v>
+        <v>1.395893000550174</v>
       </c>
       <c r="F96" t="n">
-        <v>0.10865858913135</v>
+        <v>0.1006405357274442</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.09866806148813403</v>
+        <v>-0.09050834636331127</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.1419804097843024</v>
       </c>
       <c r="E97" t="n">
-        <v>1.322169092946692</v>
+        <v>1.317645361992074</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1717940701058419</v>
+        <v>0.1646936698496544</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.1182535814144785</v>
+        <v>-0.109132140606541</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.1778162834675415</v>
       </c>
       <c r="E98" t="n">
-        <v>1.227444622226817</v>
+        <v>1.221151693779857</v>
       </c>
       <c r="F98" t="n">
-        <v>0.2046737555306919</v>
+        <v>0.1966856084900909</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.1389393407066121</v>
+        <v>-0.130667870224177</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.2016948862516701</v>
       </c>
       <c r="E99" t="n">
-        <v>1.141075045002805</v>
+        <v>1.134679805312961</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2255405270217751</v>
+        <v>0.2188037251826082</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.1413145355606549</v>
+        <v>-0.1333862012466633</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.219641910805694</v>
       </c>
       <c r="E100" t="n">
-        <v>1.052901641865783</v>
+        <v>1.047425629342778</v>
       </c>
       <c r="F100" t="n">
-        <v>0.2375314046878438</v>
+        <v>0.2307898807913129</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1558553242032306</v>
+        <v>-0.148026153093881</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.2356289417128961</v>
       </c>
       <c r="E101" t="n">
-        <v>0.9622900831098667</v>
+        <v>0.9576215423960889</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2315517060460225</v>
+        <v>0.2221721261021917</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.169546142520304</v>
+        <v>-0.1610968078771619</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.2590538373475035</v>
       </c>
       <c r="E102" t="n">
-        <v>0.9013236004845272</v>
+        <v>0.89749086392416</v>
       </c>
       <c r="F102" t="n">
-        <v>0.2377580634413111</v>
+        <v>0.2286366226333736</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.1949350709468841</v>
+        <v>-0.1858230742536744</v>
       </c>
     </row>
   </sheetData>
